--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="2260" windowWidth="30440" windowHeight="24580" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="380" windowWidth="20980" windowHeight="17880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -680,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -703,11 +703,11 @@
       </c>
       <c r="G6" s="3">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -740,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -751,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -773,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -785,11 +785,11 @@
       </c>
       <c r="G14" s="3">
         <f>SUM(G8:G13)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3">
         <f>MIN(C14,G14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -815,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -837,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -848,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -870,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -882,11 +882,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G16:G22)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H23" s="3">
         <f>MIN(C23,G23)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -973,7 +973,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10">
         <f>SUM(H4:H30)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -1035,7 +1035,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9">
         <f>Bonus-Malus</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -1050,7 +1050,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5">
         <f>1 + TOTAL/10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
